--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/43_Karabük_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/43_Karabük_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C0AF20-16A0-4FF6-844C-C9DD82E57209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20513925-50CF-49C4-B8A0-4DBF6A2FFEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{4CBFE64B-60E7-43B4-A99D-A3DD86684485}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{63138C10-50C7-4220-BA49-728527600E67}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -933,14 +933,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{284D018E-3A1F-4A4E-BDDB-46F8A26C1C44}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CC39CDD1-6B35-4DC6-B486-A2E4099C3BC3}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{7841A3A7-2A55-4CB0-BF41-D2613109359F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B48C494D-8696-4D40-BDFE-99C1488EAFBC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BEA61E47-9BC7-4C71-BB7D-159167BB9577}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{EA247609-2348-4509-A0C7-941DCB0CB26B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{61B756ED-A167-48B6-803D-49367B620F7D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DBB6959F-9A24-4ACB-9854-08BF6A89148F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{896C15DF-1BE3-4994-B30A-154AA6EC5107}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0EE0DAA0-80D1-444F-A193-03ED071EAE96}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{101B286E-4505-4F51-965B-FA4EDD2C797A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{36A2D5BC-E367-47FA-A923-62484FF07304}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C4A455AF-5AE3-4D00-9702-F88CD8AEF09B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A8008A54-F20F-42FD-91C6-D6191A536B46}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8A596A02-BD95-4764-94C5-577A038DAD3D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A59AA59B-F8D5-43E9-996B-380D8402E1E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA6CACA-C5CB-468E-AEB6-D995B0364926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A63333-BFA2-4FDE-96B5-9C9CB066C41A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368EAF6A-9943-4060-9030-FAB0AE8780A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBD6FF0-F916-4A5E-9CA3-CFF42828F796}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3796,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172CD9C6-0B75-4FC5-BD2E-4D6043C0B58F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A855199F-2E5F-4EFF-8E81-8CDB0AC523D3}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5018,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7921656-9475-4393-8038-8400BE9D7E04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C31C0F-7366-4D8C-AD33-D22289B1DEBA}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6236,7 +6236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F79967-F683-4165-9B51-4759C72B22FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63645E78-7875-4997-A1C7-89AD6444D0A6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7497,7 +7497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F72BA5F-38B8-43A1-B569-71EF7373D5C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C47235-42C4-489A-9BDA-B1185FFE67DF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8758,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE2A5A-66FD-46D1-A781-74EAEEA0F577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB70B87-6BF6-4747-A237-EACAEA67A3CF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10019,7 +10019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6BAC36-C892-45CC-BCC7-F6C5B5FF4060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D24E6A6-FE89-406A-A2FC-857348876471}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11276,7 +11276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21464FA-6E67-4E55-B8D2-0F16985A4361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A453C9ED-4A79-440E-AB47-A78DDBAF7CA6}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12534,7 +12534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE908E0-B5F2-414D-8EE1-5C86DE40B873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19DF93A-EB2B-4B27-BD35-C7D255F7F545}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13788,7 +13788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E278C819-6ACA-413B-97B2-1D97EAEF1C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC5296D-0A5B-469D-85F5-EF51F14D26BE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15030,7 +15030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7054037B-D524-482F-AB78-DF904B0710E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3A622C-34D7-46E8-AE7D-ACCCC030232C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
